--- a/urun_listesi.xlsx
+++ b/urun_listesi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\abdul\OneDrive\Desktop\cit_github\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{311ACBA8-3796-4260-A212-0339743B78E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88980AC4-5627-473B-B81C-E478126DCFAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -277,9 +277,6 @@
     <t>CA-8</t>
   </si>
   <si>
-    <t>UYARI TABELESA</t>
-  </si>
-  <si>
     <t>C-7</t>
   </si>
   <si>
@@ -305,6 +302,9 @@
   </si>
   <si>
     <t>CA-7</t>
+  </si>
+  <si>
+    <t>UYARI TABELASI</t>
   </si>
 </sst>
 </file>
@@ -674,8 +674,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C40" sqref="C40"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1149,10 +1149,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
+        <v>94</v>
+      </c>
+      <c r="B43" t="s">
         <v>85</v>
-      </c>
-      <c r="B43" t="s">
-        <v>86</v>
       </c>
       <c r="C43">
         <v>20.9</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
         <v>87</v>
-      </c>
-      <c r="B44" t="s">
-        <v>88</v>
       </c>
       <c r="C44">
         <v>57</v>
@@ -1171,10 +1171,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
         <v>89</v>
-      </c>
-      <c r="B45" t="s">
-        <v>90</v>
       </c>
       <c r="C45">
         <v>95</v>
@@ -1182,10 +1182,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
         <v>91</v>
-      </c>
-      <c r="B46" t="s">
-        <v>92</v>
       </c>
       <c r="C46">
         <v>166.3</v>
@@ -1193,10 +1193,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
         <v>93</v>
-      </c>
-      <c r="B47" t="s">
-        <v>94</v>
       </c>
       <c r="C47">
         <v>304</v>
